--- a/src/test/resources/VtigerData.xlsx
+++ b/src/test/resources/VtigerData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\vtiger-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7D86B2-4195-44E3-AD65-7828D52ED5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CF1BF9-2477-44BB-8698-F3C6B6F71055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8724" xr2:uid="{03F2898C-4523-446C-BD55-CCB2B7892612}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>XYZ_solutions05</t>
+    <t>XYZ_solutions</t>
   </si>
 </sst>
 </file>
